--- a/Tristan.xlsx
+++ b/Tristan.xlsx
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="313">
   <si>
     <t>Step 1: Create a copy of this spreadsheet</t>
   </si>
@@ -345,13 +345,13 @@
     <t>Character Name</t>
   </si>
   <si>
-    <t>Kaa</t>
+    <t>Tristan</t>
   </si>
   <si>
     <t>Starting Item</t>
   </si>
   <si>
-    <t>Armor of Mocking</t>
+    <t>Owl Guard</t>
   </si>
   <si>
     <t>Speed</t>
@@ -360,13 +360,13 @@
     <t>Subclass Name</t>
   </si>
   <si>
-    <t>Shadowscale</t>
+    <t>Owl Knight</t>
   </si>
   <si>
     <t>Card 1</t>
   </si>
   <si>
-    <t>Deflect</t>
+    <t>barrier</t>
   </si>
   <si>
     <t>HP</t>
@@ -375,31 +375,31 @@
     <t>Primary Class</t>
   </si>
   <si>
-    <t>Scout</t>
+    <t>Warrior</t>
   </si>
   <si>
     <t>Card 2</t>
   </si>
   <si>
-    <t>Sneaky Strike</t>
+    <t>shield bash</t>
   </si>
   <si>
     <t>HP gained per level</t>
   </si>
   <si>
-    <t>[0,7,7,7,7]</t>
+    <t>[0, 7, 7, 7, 7]</t>
   </si>
   <si>
     <t>Secondary Class</t>
   </si>
   <si>
-    <t>Warrior</t>
+    <t>Healer</t>
   </si>
   <si>
     <t>Card 3</t>
   </si>
   <si>
-    <t>Acrobatic Strike</t>
+    <t>mind blast</t>
   </si>
   <si>
     <t>Slashing Resistance</t>
@@ -411,7 +411,7 @@
     <t>Card 4</t>
   </si>
   <si>
-    <t>Disengage</t>
+    <t>bluff</t>
   </si>
   <si>
     <t>Piercing Resistance</t>
@@ -420,13 +420,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Thuls Sister, bigger and stronger with more martial and tactical training</t>
+    <t>Longing for Isolde, Tristan will do everything he can to protect his allies and vanquish his foes.</t>
   </si>
   <si>
     <t>Card 5</t>
   </si>
   <si>
-    <t>Provoke</t>
+    <t>barricade</t>
   </si>
   <si>
     <t>Blunt Resistance</t>
@@ -435,13 +435,13 @@
     <t>Strengths</t>
   </si>
   <si>
-    <t>This character controls the battlefield through stealth taunt and evade</t>
+    <t>This character excels at Blocking, Defense, and Mind Damage</t>
   </si>
   <si>
     <t>Card 6</t>
   </si>
   <si>
-    <t>Smoke Bomb</t>
+    <t>clairvoyance</t>
   </si>
   <si>
     <t>Fire Resistance</t>
@@ -453,7 +453,7 @@
     <t>Card 7</t>
   </si>
   <si>
-    <t>Distracting Strike</t>
+    <t>Painful Screech</t>
   </si>
   <si>
     <t>Cold Resistance</t>
@@ -471,9 +471,6 @@
     <t>Holy Resistance</t>
   </si>
   <si>
-    <t>: Double evasion then Deal X slashing to target monster where X= EvasionX3.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">"{\n    \"UnitsInDeck\": </t>
   </si>
   <si>
@@ -510,13 +507,13 @@
     <t>Level 1 Trait (Innate)</t>
   </si>
   <si>
-    <t>Quick Reflex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 1 evade at combat start </t>
-  </si>
-  <si>
-    <t>BeginCombat</t>
+    <t>Mental Fortitude</t>
+  </si>
+  <si>
+    <t>Fortify on you increases Mind Damage by 1 per charge and stacks to 50.</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>trait0</t>
@@ -525,10 +522,7 @@
     <t>Level 2a Trait (Left Hand Side)</t>
   </si>
   <si>
-    <t>Counter Maneuver</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>Strigiform Resilience</t>
   </si>
   <si>
     <t>trait1a</t>
@@ -537,7 +531,7 @@
     <t>Level 2b Trait (Right Hand Side)</t>
   </si>
   <si>
-    <t>Slash and Dash</t>
+    <t>Cognitive Calm</t>
   </si>
   <si>
     <t>trait1b</t>
@@ -546,70 +540,75 @@
     <t>Level 3a Trait (Left Hand Side)</t>
   </si>
   <si>
-    <t>Block and Evade</t>
-  </si>
-  <si>
-    <t>Evasion +1. Evasion on you stacks and increases All Damage by 1 per charge. When you play a Defense card, gain 1 Energy and Draw 1. (2 times/turn)</t>
+    <t>Feathered Shell</t>
+  </si>
+  <si>
+    <t>Block +2, Shield +2. Mental Fortitude applies to all heroes. When you apply Insane, apply 2 Block to All Heroes. This Block does not benefit from bonuses.</t>
+  </si>
+  <si>
+    <t>AuraCurseSet</t>
+  </si>
+  <si>
+    <t>trait2a</t>
+  </si>
+  <si>
+    <t>Level 3b Trait (Right Hand Side)</t>
+  </si>
+  <si>
+    <t>Bird of all Trades</t>
+  </si>
+  <si>
+    <t>At the start of your turn, reduce the cost of your highest cost Attack by 2. Repeat for Defense, Mind Spell, and Healing Spell.</t>
+  </si>
+  <si>
+    <t>BeginTurnCardsDealt</t>
+  </si>
+  <si>
+    <t>trait2b</t>
+  </si>
+  <si>
+    <t>Level 4a Trait (Left Hand Side)</t>
+  </si>
+  <si>
+    <t>Mind Breaker</t>
+  </si>
+  <si>
+    <t>trait3a</t>
+  </si>
+  <si>
+    <t>Level 4b Trait (Right Hand Side)</t>
+  </si>
+  <si>
+    <t>Lower Guard</t>
+  </si>
+  <si>
+    <t>trait3b</t>
+  </si>
+  <si>
+    <t>Level 5a Trait (Left Hand Side)</t>
+  </si>
+  <si>
+    <t>Avian Strength</t>
+  </si>
+  <si>
+    <t>Insane +1, Crack +1. Feathered Shell applies 2 Block per Insane change applied. Bird of all trades Reduces cost by 3.</t>
+  </si>
+  <si>
+    <t>trait4a</t>
+  </si>
+  <si>
+    <t>Level 5b Trait (Right Hand Side)</t>
+  </si>
+  <si>
+    <t>Frantic Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once per turn, when you play a Mind Spell, add a randomly upgraded Pandemonium to your hand (Costs 0 and Vanish). </t>
   </si>
   <si>
     <t>CastCard</t>
   </si>
   <si>
-    <t>trait2a</t>
-  </si>
-  <si>
-    <t>Level 3b Trait (Right Hand Side)</t>
-  </si>
-  <si>
-    <t>Superior Attack Vector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth +1. Stealth on heroes graints 15% more damage and 5% more resistances per charge.
- </t>
-  </si>
-  <si>
-    <t>trait2b</t>
-  </si>
-  <si>
-    <t>Level 4a Trait (Left Hand Side)</t>
-  </si>
-  <si>
-    <t>All Out</t>
-  </si>
-  <si>
-    <t>trait3a</t>
-  </si>
-  <si>
-    <t>Level 4b Trait (Right Hand Side)</t>
-  </si>
-  <si>
-    <t>Distraction Plan</t>
-  </si>
-  <si>
-    <t>trait3b</t>
-  </si>
-  <si>
-    <t>Level 5a Trait (Left Hand Side)</t>
-  </si>
-  <si>
-    <t>Playing With Fire</t>
-  </si>
-  <si>
-    <t>All Resistances -50%. Evasion on you can't be purged unless specified. Stealth grants 25% additional damage per charge.</t>
-  </si>
-  <si>
-    <t>trait4a</t>
-  </si>
-  <si>
-    <t>Level 5b Trait (Right Hand Side)</t>
-  </si>
-  <si>
-    <t>Superior stealth</t>
-  </si>
-  <si>
-    <t>Stealth +1. Heroes Only lose 75% stealth charges rounding down when acting in stealth.</t>
-  </si>
-  <si>
     <t>trait4b</t>
   </si>
   <si>
@@ -643,7 +642,7 @@
     <t>BaseGameObjectID</t>
   </si>
   <si>
-    <t>thulsSkinMedium</t>
+    <t>buhoelfo</t>
   </si>
   <si>
     <t>Portrait PNG name</t>
@@ -685,9 +684,6 @@
     <t>Custom Sprite</t>
   </si>
   <si>
-    <t>skinLizzie</t>
-  </si>
-  <si>
     <t>CardbackOrder</t>
   </si>
   <si>
@@ -784,156 +780,156 @@
     <t>ChallengePack0</t>
   </si>
   <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>axman</t>
+  </si>
+  <si>
+    <t>bowman</t>
+  </si>
+  <si>
+    <t>cryomancer</t>
+  </si>
+  <si>
+    <t>devotee</t>
+  </si>
+  <si>
+    <t>Card1</t>
+  </si>
+  <si>
+    <t>ChallengePack1</t>
+  </si>
+  <si>
+    <t>protector</t>
+  </si>
+  <si>
+    <t>brawler</t>
+  </si>
+  <si>
+    <t>fencer</t>
+  </si>
+  <si>
+    <t>enchanter</t>
+  </si>
+  <si>
+    <t>friar</t>
+  </si>
+  <si>
+    <t>Card2</t>
+  </si>
+  <si>
+    <t>ChallengePack2</t>
+  </si>
+  <si>
+    <t>mentalist</t>
+  </si>
+  <si>
+    <t>commander</t>
+  </si>
+  <si>
+    <t>gunner</t>
+  </si>
+  <si>
+    <t>glacier</t>
+  </si>
+  <si>
+    <t>healer</t>
+  </si>
+  <si>
+    <t>Card3</t>
+  </si>
+  <si>
+    <t>ChallengePack3</t>
+  </si>
+  <si>
+    <t>paladin</t>
+  </si>
+  <si>
+    <t>defender</t>
+  </si>
+  <si>
+    <t>hunter</t>
+  </si>
+  <si>
+    <t>inferno</t>
+  </si>
+  <si>
+    <t>heretic</t>
+  </si>
+  <si>
+    <t>Card4</t>
+  </si>
+  <si>
+    <t>ChallengePack4</t>
+  </si>
+  <si>
+    <t>seer</t>
+  </si>
+  <si>
+    <t>destroyer</t>
+  </si>
+  <si>
     <t>ninja</t>
   </si>
   <si>
-    <t>axman</t>
-  </si>
-  <si>
-    <t>bowman</t>
-  </si>
-  <si>
-    <t>cryomancer</t>
-  </si>
-  <si>
-    <t>devotee</t>
-  </si>
-  <si>
-    <t>Card1</t>
-  </si>
-  <si>
-    <t>ChallengePack1</t>
+    <t>scribe</t>
+  </si>
+  <si>
+    <t>justicar</t>
+  </si>
+  <si>
+    <t>ChallengePack5</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>plague</t>
+  </si>
+  <si>
+    <t>shadowmancer</t>
+  </si>
+  <si>
+    <t>ChallengePack6</t>
+  </si>
+  <si>
+    <t>gladiator</t>
+  </si>
+  <si>
+    <t>poisoner</t>
+  </si>
+  <si>
+    <t>sorcerer</t>
+  </si>
+  <si>
+    <t>reaver</t>
+  </si>
+  <si>
+    <t>tempest</t>
+  </si>
+  <si>
+    <t>marauder</t>
   </si>
   <si>
     <t>rogue</t>
   </si>
   <si>
-    <t>brawler</t>
-  </si>
-  <si>
-    <t>fencer</t>
-  </si>
-  <si>
-    <t>enchanter</t>
-  </si>
-  <si>
-    <t>friar</t>
-  </si>
-  <si>
-    <t>Card2</t>
-  </si>
-  <si>
-    <t>ChallengePack2</t>
-  </si>
-  <si>
-    <t>commander</t>
-  </si>
-  <si>
-    <t>gunner</t>
-  </si>
-  <si>
-    <t>glacier</t>
-  </si>
-  <si>
-    <t>healer</t>
-  </si>
-  <si>
-    <t>Card3</t>
-  </si>
-  <si>
-    <t>ChallengePack3</t>
-  </si>
-  <si>
-    <t>guardian</t>
-  </si>
-  <si>
-    <t>defender</t>
-  </si>
-  <si>
-    <t>hunter</t>
-  </si>
-  <si>
-    <t>inferno</t>
-  </si>
-  <si>
-    <t>heretic</t>
-  </si>
-  <si>
-    <t>Card4</t>
-  </si>
-  <si>
-    <t>ChallengePack4</t>
-  </si>
-  <si>
-    <t>destroyer</t>
-  </si>
-  <si>
-    <t>scribe</t>
-  </si>
-  <si>
-    <t>justicar</t>
-  </si>
-  <si>
-    <t>ChallengePack5</t>
-  </si>
-  <si>
-    <t>fallen</t>
-  </si>
-  <si>
-    <t>plague</t>
-  </si>
-  <si>
-    <t>shadowmancer</t>
-  </si>
-  <si>
-    <t>mentalist</t>
-  </si>
-  <si>
-    <t>ChallengePack6</t>
+    <t>witch</t>
+  </si>
+  <si>
+    <t>saint</t>
+  </si>
+  <si>
+    <t>swordman</t>
   </si>
   <si>
     <t>scoundrel</t>
   </si>
   <si>
-    <t>gladiator</t>
-  </si>
-  <si>
-    <t>poisoner</t>
-  </si>
-  <si>
-    <t>sorcerer</t>
-  </si>
-  <si>
-    <t>paladin</t>
-  </si>
-  <si>
-    <t>reaver</t>
-  </si>
-  <si>
-    <t>tempest</t>
-  </si>
-  <si>
-    <t>protector</t>
-  </si>
-  <si>
-    <t>marauder</t>
-  </si>
-  <si>
-    <t>witch</t>
-  </si>
-  <si>
-    <t>saint</t>
-  </si>
-  <si>
-    <t>swordman</t>
-  </si>
-  <si>
     <t>wizard</t>
   </si>
   <si>
-    <t>seer</t>
-  </si>
-  <si>
     <t>warlord</t>
   </si>
   <si>
@@ -958,27 +954,27 @@
     <t>intercept</t>
   </si>
   <si>
+    <t>infusecourage</t>
+  </si>
+  <si>
+    <t>bindingheal</t>
+  </si>
+  <si>
+    <t>pommel</t>
+  </si>
+  <si>
+    <t>leapslam</t>
+  </si>
+  <si>
+    <t>mentalshake</t>
+  </si>
+  <si>
+    <t>foresight</t>
+  </si>
+  <si>
     <t>repairarmor</t>
   </si>
   <si>
-    <t>sneakpeek</t>
-  </si>
-  <si>
-    <t>camouflage</t>
-  </si>
-  <si>
-    <t>faststrike</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>cleave</t>
-  </si>
-  <si>
-    <t>bladedance</t>
-  </si>
-  <si>
     <t>ActionSound</t>
   </si>
   <si>
@@ -1192,40 +1188,40 @@
     <t>TimesPerTurn</t>
   </si>
   <si>
-    <t>shadowscaletrait1a</t>
-  </si>
-  <si>
-    <t>shadowscalecountermaneuver</t>
-  </si>
-  <si>
-    <t>shadowscaletrait1b</t>
-  </si>
-  <si>
-    <t>shadowscaleslashanddash</t>
-  </si>
-  <si>
-    <t>shadowscaletrait2a</t>
-  </si>
-  <si>
-    <t>shadowscaletrait2b</t>
-  </si>
-  <si>
-    <t>shadowscaletrait3a</t>
-  </si>
-  <si>
-    <t>shadowscaleallout</t>
-  </si>
-  <si>
-    <t>shadowscaletrait3b</t>
-  </si>
-  <si>
-    <t>shadowscaledistractionplan</t>
-  </si>
-  <si>
-    <t>shadowscaletrait4a</t>
-  </si>
-  <si>
-    <t>shadowscaletrait4b</t>
+    <t>owlknighttrait1a</t>
+  </si>
+  <si>
+    <t>owlknightstrigiformresilience</t>
+  </si>
+  <si>
+    <t>owlknighttrait1b</t>
+  </si>
+  <si>
+    <t>owlknightcognitivecalm</t>
+  </si>
+  <si>
+    <t>owlknighttrait2a</t>
+  </si>
+  <si>
+    <t>owlknighttrait2b</t>
+  </si>
+  <si>
+    <t>owlknighttrait3a</t>
+  </si>
+  <si>
+    <t>owlknightmindbreaker</t>
+  </si>
+  <si>
+    <t>owlknighttrait3b</t>
+  </si>
+  <si>
+    <t>owlknightlowerguard</t>
+  </si>
+  <si>
+    <t>owlknighttrait4a</t>
+  </si>
+  <si>
+    <t>owlknighttrait4b</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1824,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1980,6 +1976,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2003,9 +2002,6 @@
     <xf borderId="24" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2022,6 +2018,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="26" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2046,9 +2045,6 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2066,6 +2062,9 @@
     </xf>
     <xf borderId="0" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="27" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2677,87 +2676,87 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="C1" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="E1" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="F1" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="G1" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="H1" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="98" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="97" t="s">
+      <c r="J1" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="K1" s="98" t="s">
         <v>294</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="L1" s="98" t="s">
         <v>295</v>
       </c>
-      <c r="L1" s="97" t="s">
-        <v>296</v>
-      </c>
-      <c r="M1" s="97" t="s">
-        <v>157</v>
+      <c r="M1" s="98" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="97" t="b">
+      <c r="A2" s="98" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="98">
         <v>0.0</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>NewGameObject</f>
-        <v>skinkaa</v>
+        <v>skintristan</v>
       </c>
       <c r="D2" s="5" t="str">
         <f>concat(lower(substitute(Subclass," ","")),"base")</f>
-        <v>shadowscalebase</v>
-      </c>
-      <c r="E2" s="97" t="s">
+        <v>owlknightbase</v>
+      </c>
+      <c r="E2" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="97">
+      <c r="F2" s="98">
         <v>0.0</v>
       </c>
       <c r="G2" s="5" t="str">
         <f>SubclassID</f>
-        <v>shadowscale</v>
+        <v>owlknight</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="str">
         <f>Portrait</f>
-        <v>kaaPortrait</v>
+        <v>tristanPortrait</v>
       </c>
       <c r="J2" s="5" t="str">
         <f>PortraitGrande</f>
-        <v>kaaPortraitGrande</v>
+        <v>tristanPortraitGrande</v>
       </c>
       <c r="K2" s="5" t="str">
         <f>Visuals!E5</f>
-        <v>kaaSilueta</v>
+        <v>tristanSilueta</v>
       </c>
       <c r="L2" s="5" t="str">
         <f>SiluetaGrande</f>
-        <v>kaaSiluetaGrande</v>
+        <v>tristanSiluetaGrande</v>
       </c>
       <c r="M2" s="5"/>
     </row>
@@ -2816,44 +2815,44 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="97" t="s">
+      <c r="A1" s="98" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="97" t="s">
-        <v>157</v>
+      <c r="E1" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="98" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2">
@@ -2867,7 +2866,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f t="array" ref="C2">index(Cardback_Info[Value],3,1)</f>
-        <v>cardbackshadowscale</v>
+        <v>cardbackowlknight</v>
       </c>
       <c r="D2" s="5" t="str">
         <f t="array" ref="D2">index(Cardback_Info[Value],4,1)</f>
@@ -2879,11 +2878,11 @@
       </c>
       <c r="F2" s="5" t="str">
         <f t="array" ref="F2">index(Cardback_Info[Value],6,1)</f>
-        <v>cardbackshadowscale</v>
+        <v>cardbackowlknight</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="array" ref="G2">index(Cardback_Info[Value],7,1)</f>
-        <v>shadowscale</v>
+        <v>owlknight</v>
       </c>
       <c r="H2" s="5" t="b">
         <f t="array" ref="H2">index(Cardback_Info[Value],8,1)</f>
@@ -2926,40 +2925,40 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="98" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1" s="97" t="s">
+      <c r="E1" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="F1" s="98" t="s">
         <v>300</v>
-      </c>
-      <c r="F1" s="97" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="str">
         <f t="array" ref="A2:B10">TraitJson</f>
-        <v>Quick Reflex</v>
+        <v>Mental Fortitude</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5" t="str">
         <f t="array" ref="C2:C10">TraitFilenames</f>
-        <v>shadowscaletrait0</v>
+        <v>owlknighttrait0</v>
       </c>
       <c r="D2" s="5" t="str">
         <f t="array" ref="D2:D21">Trait_Info[Trait Activation]</f>
-        <v>BeginCombat</v>
+        <v>None</v>
       </c>
       <c r="E2" s="5" t="str">
         <f t="array" ref="E2:E21">Trait_Info[Enchantment ID]</f>
@@ -2972,17 +2971,17 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="F3" s="5">
         <v>0.0</v>
@@ -2990,17 +2989,17 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="F4" s="5">
         <v>0.0</v>
@@ -3008,34 +3007,34 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
@@ -3044,17 +3043,17 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="F7" s="5">
         <v>0.0</v>
@@ -3062,17 +3061,17 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="F8" s="5">
         <v>0.0</v>
@@ -3080,16 +3079,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
@@ -3098,20 +3097,20 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -3262,7 +3261,7 @@
       <c r="F3" s="26"/>
       <c r="G3" s="27" t="str">
         <f>concat(SubclassID,lower(Substitute(SUBSTITUTE(E3," ",""),"'","")))</f>
-        <v>shadowscalearmorofmocking</v>
+        <v>owlknightowlguard</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="14"/>
@@ -3270,7 +3269,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="23">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
@@ -3291,18 +3290,18 @@
       </c>
       <c r="G4" s="27" t="str">
         <f t="shared" ref="G4:G9" si="1">lower(Substitute(SUBSTITUTE(E4," ",""),"'",""))</f>
-        <v>deflect</v>
+        <v>barrier</v>
       </c>
       <c r="H4" s="29" t="str">
         <f t="shared" ref="H4:H10" si="2">CONCATENATE($H$13,F4,$H$14,G4,$H$15)</f>
-        <v>"{\n    \"UnitsInDeck\": 4,\n    \"Card\": \"deflect\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 4,\n    \"Card\": \"barrier\"\n}"</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="24" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="23">
-        <v>65.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="5">
@@ -3319,15 +3318,15 @@
         <v>32</v>
       </c>
       <c r="F5" s="25">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>sneakystrike</v>
+        <v>shieldbash</v>
       </c>
       <c r="H5" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 3,\n    \"Card\": \"sneakystrike\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 4,\n    \"Card\": \"shieldbash\"\n}"</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="24" t="s">
@@ -3351,34 +3350,34 @@
         <v>38</v>
       </c>
       <c r="F6" s="25">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>acrobaticstrike</v>
+        <v>mindblast</v>
       </c>
       <c r="H6" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"acrobaticstrike\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 3,\n    \"Card\": \"mindblast\"\n}"</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="24" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="23">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="M6" s="31" t="str">
         <f>HpLevel</f>
-        <v>[0,7,7,7,7]</v>
+        <v>[0, 7, 7, 7, 7]</v>
       </c>
       <c r="N6" s="31" t="str">
         <f>if(left(M6,1)="[",M6,CONCATENATE("[",M6))</f>
-        <v>[0,7,7,7,7]</v>
+        <v>[0, 7, 7, 7, 7]</v>
       </c>
       <c r="O6" s="31" t="str">
         <f>if(right(N6,1)="]",N6,CONCATENATE(N6,"]"))</f>
-        <v>[0,7,7,7,7]</v>
+        <v>[0, 7, 7, 7, 7]</v>
       </c>
     </row>
     <row r="7">
@@ -3386,7 +3385,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>41</v>
@@ -3399,18 +3398,18 @@
       </c>
       <c r="G7" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>disengage</v>
+        <v>bluff</v>
       </c>
       <c r="H7" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"disengage\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"bluff\"\n}"</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="24" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="23">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
@@ -3427,15 +3426,15 @@
         <v>47</v>
       </c>
       <c r="F8" s="25">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>provoke</v>
+        <v>barricade</v>
       </c>
       <c r="H8" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"provoke\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"barricade\"\n}"</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="24" t="s">
@@ -3463,18 +3462,18 @@
       </c>
       <c r="G9" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>smokebomb</v>
+        <v>clairvoyance</v>
       </c>
       <c r="H9" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"smokebomb\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"clairvoyance\"\n}"</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="24" t="s">
         <v>53</v>
       </c>
       <c r="K9" s="23">
-        <v>5.0</v>
+        <v>-5.0</v>
       </c>
     </row>
     <row r="10">
@@ -3493,18 +3492,18 @@
       </c>
       <c r="G10" s="27" t="str">
         <f>concat(SubclassID,lower(Substitute(SUBSTITUTE(E10," ",""),"'","")))</f>
-        <v>shadowscaledistractingstrike</v>
+        <v>owlknightpainfulscreech</v>
       </c>
       <c r="H10" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>"{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"shadowscaledistractingstrike\"\n}"</v>
+        <v>"{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"owlknightpainfulscreech\"\n}"</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K10" s="23">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
@@ -3516,7 +3515,7 @@
       <c r="E11" s="35"/>
       <c r="F11" s="36">
         <f>sum(F4:F10)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="38"/>
@@ -3525,14 +3524,14 @@
         <v>59</v>
       </c>
       <c r="K11" s="23">
-        <v>0.0</v>
+        <v>-5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13"/>
       <c r="B12" s="39" t="str">
         <f>lower(SUBSTITUTE(B4," ",""))</f>
-        <v>shadowscale</v>
+        <v>owlknight</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>60</v>
@@ -3543,43 +3542,40 @@
         <v>61</v>
       </c>
       <c r="K12" s="23">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="3" t="s">
+      <c r="H13" s="40" t="s">
         <v>62</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>63</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="23">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="H14" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="23">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
       <c r="H15" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" s="42">
         <v>1.0</v>
@@ -3590,7 +3586,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
       <c r="J16" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16" s="33">
         <v>3.0</v>
@@ -8566,218 +8562,222 @@
         <v>13</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="F2" s="51" t="s">
         <v>72</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>73</v>
       </c>
       <c r="G2" s="13"/>
       <c r="I2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="52" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>77</v>
       </c>
       <c r="E3" s="25">
         <v>0.0</v>
       </c>
       <c r="F3" s="53"/>
       <c r="G3" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="54">
-        <v>0.0</v>
+        <v>76</v>
+      </c>
+      <c r="E4" s="56">
+        <f t="shared" ref="E4:E5" si="1">if(EQ(D4,"None"),0,"&lt;0&gt;")</f>
+        <v>0</v>
       </c>
       <c r="F4" s="53" t="str">
         <f>concatenate(SubclassID,lower(SUBSTITUTE(B4," ","")))</f>
-        <v>shadowscalecountermaneuver</v>
+        <v>owlknightstrigiformresilience</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="54">
-        <v>0.0</v>
+        <v>76</v>
+      </c>
+      <c r="E5" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F5" s="53" t="str">
         <f>concatenate(SubclassID,lower(SUBSTITUTE(B5," ","")))</f>
-        <v>shadowscaleslashanddash</v>
+        <v>owlknightcognitivecalm</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="D6" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>89</v>
-      </c>
       <c r="E6" s="25">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="D7" s="52" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>81</v>
       </c>
       <c r="E7" s="25">
         <v>0.0</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>95</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>96</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="54">
-        <v>0.0</v>
+        <v>76</v>
+      </c>
+      <c r="E8" s="56">
+        <f t="shared" ref="E8:E9" si="2">if(EQ(D8,"None"),0,"&lt;0&gt;")</f>
+        <v>0</v>
       </c>
       <c r="F8" s="53" t="str">
         <f>concatenate(SubclassID,lower(SUBSTITUTE(B8," ","")))</f>
-        <v>shadowscaleallout</v>
+        <v>owlknightmindbreaker</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="54">
-        <v>0.0</v>
+        <v>76</v>
+      </c>
+      <c r="E9" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F9" s="53" t="str">
         <f>concatenate(SubclassID,lower(SUBSTITUTE(B9," ","")))</f>
-        <v>shadowscaledistractionplan</v>
+        <v>owlknightlowerguard</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>103</v>
-      </c>
       <c r="D10" s="52" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E10" s="25">
         <v>0.0</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="C11" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="D11" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>81</v>
-      </c>
       <c r="E11" s="25">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="13" t="s">
@@ -8786,18 +8786,18 @@
       <c r="I11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="A12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
       <c r="G12" s="13"/>
       <c r="I12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="A13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="13"/>
       <c r="I13" s="13"/>
     </row>
@@ -8805,12 +8805,12 @@
       <c r="A14" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="62" t="str">
+      <c r="B14" s="54" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G3)</f>
-        <v>shadowscaletrait0</v>
-      </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+        <v>owlknighttrait0</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
       <c r="G14" s="13"/>
       <c r="I14" s="13"/>
     </row>
@@ -8818,9 +8818,9 @@
       <c r="A15" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="62" t="str">
+      <c r="B15" s="54" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G4)</f>
-        <v>shadowscaletrait1a</v>
+        <v>owlknighttrait1a</v>
       </c>
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
@@ -8831,12 +8831,12 @@
       <c r="A16" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="62" t="str">
+      <c r="B16" s="54" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G5)</f>
-        <v>shadowscaletrait1b</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+        <v>owlknighttrait1b</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="G16" s="13"/>
       <c r="I16" s="13"/>
     </row>
@@ -8844,9 +8844,9 @@
       <c r="A17" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="62" t="str">
+      <c r="B17" s="54" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G6)</f>
-        <v>shadowscaletrait2a</v>
+        <v>owlknighttrait2a</v>
       </c>
       <c r="D17" s="63"/>
       <c r="E17" s="63"/>
@@ -8857,12 +8857,12 @@
       <c r="A18" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="62" t="str">
+      <c r="B18" s="54" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G7)</f>
-        <v>shadowscaletrait2b</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+        <v>owlknighttrait2b</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
       <c r="G18" s="13"/>
       <c r="I18" s="13"/>
     </row>
@@ -8870,9 +8870,9 @@
       <c r="A19" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="62" t="str">
+      <c r="B19" s="54" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G8)</f>
-        <v>shadowscaletrait3a</v>
+        <v>owlknighttrait3a</v>
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
@@ -8883,12 +8883,12 @@
       <c r="A20" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="62" t="str">
+      <c r="B20" s="54" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G9)</f>
-        <v>shadowscaletrait3b</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+        <v>owlknighttrait3b</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="G20" s="13"/>
       <c r="I20" s="13"/>
     </row>
@@ -8896,9 +8896,9 @@
       <c r="A21" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="62" t="str">
+      <c r="B21" s="54" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G10)</f>
-        <v>shadowscaletrait4a</v>
+        <v>owlknighttrait4a</v>
       </c>
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="B22" s="35" t="str">
         <f>concat(lower(substitute(Subclass," ","")),G11)</f>
-        <v>shadowscaletrait4b</v>
+        <v>owlknighttrait4b</v>
       </c>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="E3" s="65" t="str">
         <f>concat(lower(substitute(Character," ","")),"Portrait")</f>
-        <v>kaaPortrait</v>
+        <v>tristanPortrait</v>
       </c>
       <c r="G3" s="41" t="s">
         <v>121</v>
@@ -11981,14 +11981,14 @@
       </c>
       <c r="B4" s="66" t="str">
         <f>concat("skin",lower(Character))</f>
-        <v>skinkaa</v>
+        <v>skintristan</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E4" s="65" t="str">
         <f>concat(lower(substitute(Character," ","")),"PortraitGrande")</f>
-        <v>kaaPortraitGrande</v>
+        <v>tristanPortraitGrande</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>124</v>
@@ -12009,14 +12009,14 @@
       </c>
       <c r="E5" s="65" t="str">
         <f>concat(lower(substitute(Character," ","")),"Silueta")</f>
-        <v>kaaSilueta</v>
+        <v>tristanSilueta</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>127</v>
       </c>
       <c r="H5" s="66" t="str">
         <f>concat("cardback",lower(substitute(Subclass," ","")))</f>
-        <v>cardbackshadowscale</v>
+        <v>cardbackowlknight</v>
       </c>
     </row>
     <row r="6">
@@ -12024,14 +12024,14 @@
         <v>128</v>
       </c>
       <c r="B6" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>129</v>
       </c>
       <c r="E6" s="68" t="str">
         <f>concat(lower(substitute(Character," ","")),"SiluetaGrande")</f>
-        <v>kaaSiluetaGrande</v>
+        <v>tristanSiluetaGrande</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>130</v>
@@ -12044,11 +12044,9 @@
       <c r="A7" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="69"/>
+      <c r="G7" s="41" t="s">
         <v>133</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>134</v>
       </c>
       <c r="H7" s="42">
         <v>1000.0</v>
@@ -12056,112 +12054,112 @@
       <c r="I7" s="45"/>
     </row>
     <row r="8">
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="41" t="s">
         <v>135</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>136</v>
       </c>
       <c r="H8" s="65" t="str">
         <f>concat("cardback",lower(substitute(Subclass," ","")))</f>
-        <v>cardbackshadowscale</v>
-      </c>
-      <c r="I8" s="70" t="s">
+        <v>cardbackowlknight</v>
+      </c>
+      <c r="I8" s="71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="72" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="71" t="s">
+      <c r="G9" s="41" t="s">
         <v>138</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>139</v>
       </c>
       <c r="H9" s="66" t="str">
         <f>SubclassID</f>
-        <v>shadowscale</v>
+        <v>owlknight</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="G10" s="41" t="s">
         <v>141</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>142</v>
       </c>
       <c r="H10" s="67" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="75" t="s">
         <v>143</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>144</v>
       </c>
       <c r="D11" s="45"/>
       <c r="G11" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="42">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="G12" s="41" t="s">
         <v>147</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>148</v>
       </c>
       <c r="H12" s="42">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="G13" s="41" t="s">
         <v>150</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>151</v>
       </c>
       <c r="H13" s="67" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="G14" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="H14" s="76"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="75"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="73" t="s">
+      <c r="B15" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="G15" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="G15" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="69"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
@@ -12211,7 +12209,7 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="H1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
@@ -12225,101 +12223,101 @@
         <v>17</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="J2" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="K2" s="83" t="s">
         <v>162</v>
-      </c>
-      <c r="K2" s="83" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="54" t="str">
+        <v>163</v>
+      </c>
+      <c r="B3" s="56" t="str">
         <f>General!E10</f>
-        <v>Distracting Strike</v>
+        <v>Painful Screech</v>
       </c>
       <c r="C3" s="66" t="str">
         <f t="array" ref="C3">index(Starter_Cards[Card ID],8)</f>
-        <v>shadowscaledistractingstrike</v>
+        <v>owlknightpainfulscreech</v>
       </c>
       <c r="E3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="H3" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="I3" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="J3" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="K3" s="83" t="s">
         <v>169</v>
-      </c>
-      <c r="K3" s="83" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="66" t="str">
         <f t="shared" ref="C4:C7" si="1">lower(SUBSTITUTE(B4," ",""))</f>
-        <v>deflect</v>
+        <v>barrier</v>
       </c>
       <c r="E4" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="H4" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="I4" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="J4" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="K4" s="83" t="s">
         <v>176</v>
-      </c>
-      <c r="K4" s="83" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>38</v>
+        <v>177</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>acrobaticstrike</v>
+        <v>shieldbash</v>
       </c>
       <c r="E5" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>179</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>180</v>
       </c>
       <c r="H5" s="80" t="s">
         <v>180</v>
@@ -12338,12 +12336,12 @@
       <c r="A6" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>42</v>
+      <c r="B6" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>disengage</v>
+        <v>mindblast</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>185</v>
@@ -12365,63 +12363,63 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="86" t="str">
+      <c r="B7" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="87" t="str">
         <f t="shared" si="1"/>
-        <v>provoke</v>
+        <v>bluff</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>192</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I7" s="81" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="J7" s="82" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K7" s="83" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="14"/>
       <c r="E8" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I8" s="81" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J8" s="82" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K8" s="83" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="14"/>
-      <c r="E9" s="84" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="87" t="s">
+      <c r="E9" s="85" t="s">
         <v>202</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>173</v>
       </c>
       <c r="H9" s="80" t="s">
         <v>203</v>
@@ -12433,65 +12431,65 @@
         <v>205</v>
       </c>
       <c r="K9" s="83" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10">
       <c r="H10" s="80" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="I10" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="J10" s="82" t="s">
-        <v>208</v>
-      </c>
       <c r="K10" s="83" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
       <c r="H11" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="I11" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="J11" s="82" t="s">
+      <c r="K11" s="83" t="s">
         <v>211</v>
-      </c>
-      <c r="K11" s="83" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="12">
       <c r="H12" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="81" t="s">
         <v>213</v>
-      </c>
-      <c r="I12" s="81" t="s">
-        <v>202</v>
       </c>
       <c r="J12" s="82" t="s">
         <v>214</v>
       </c>
       <c r="K12" s="83" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13">
       <c r="H13" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="I13" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="K13" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="K13" s="83" t="s">
+    </row>
+    <row r="14">
+      <c r="K14" s="89" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="K14" s="88" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -12534,116 +12532,116 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="91" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="93" t="str">
+        <f t="array" ref="A2">index(Starter_Cards[Card Name],8)</f>
+        <v>Painful Screech</v>
+      </c>
+      <c r="B2" s="54" t="str">
+        <f t="shared" ref="B2:B16" si="1">CONCATENATE($F$2,C2,$F$2)</f>
+        <v>"owlknightpainfulscreech"</v>
+      </c>
+      <c r="C2" s="94" t="str">
+        <f t="array" ref="C2">index(Starter_Cards[Card ID],8)</f>
+        <v>owlknightpainfulscreech</v>
+      </c>
+      <c r="F2" s="95" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="92" t="str">
-        <f t="array" ref="A2">index(Starter_Cards[Card Name],8)</f>
-        <v>Distracting Strike</v>
-      </c>
-      <c r="B2" s="62" t="str">
-        <f t="shared" ref="B2:B16" si="1">CONCATENATE($F$2,C2,$F$2)</f>
-        <v>"shadowscaledistractingstrike"</v>
-      </c>
-      <c r="C2" s="93" t="str">
-        <f t="array" ref="C2">index(Starter_Cards[Card ID],8)</f>
-        <v>shadowscaledistractingstrike</v>
-      </c>
-      <c r="F2" s="94" t="s">
-        <v>222</v>
-      </c>
-    </row>
     <row r="3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="62" t="str">
+      <c r="B3" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>"deflect"</v>
+        <v>"barrier"</v>
       </c>
       <c r="C3" s="27" t="str">
         <f t="shared" ref="C3:C16" si="2">lower(Substitute(SUBSTITUTE(A3," ",""),"'",""))</f>
-        <v>deflect</v>
+        <v>barrier</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="62" t="str">
+      <c r="B4" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>"sneakystrike"</v>
+        <v>"shieldbash"</v>
       </c>
       <c r="C4" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>sneakystrike</v>
+        <v>shieldbash</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="62" t="str">
+      <c r="B5" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>"acrobaticstrike"</v>
+        <v>"mindblast"</v>
       </c>
       <c r="C5" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>acrobaticstrike</v>
+        <v>mindblast</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="62" t="str">
+      <c r="B6" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>"disengage"</v>
+        <v>"bluff"</v>
       </c>
       <c r="C6" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>disengage</v>
+        <v>bluff</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="62" t="str">
+      <c r="B7" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>"provoke"</v>
+        <v>"barricade"</v>
       </c>
       <c r="C7" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>provoke</v>
+        <v>barricade</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="62" t="str">
+      <c r="B8" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>"smokebomb"</v>
+        <v>"clairvoyance"</v>
       </c>
       <c r="C8" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>smokebomb</v>
+        <v>clairvoyance</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="95" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="62" t="str">
+      <c r="A9" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="54" t="str">
         <f t="shared" si="1"/>
         <v>"intercept"</v>
       </c>
@@ -12653,94 +12651,94 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>"infusecourage"</v>
+      </c>
+      <c r="C10" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>infusecourage</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="62" t="str">
+      <c r="B11" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>"bindingheal"</v>
+      </c>
+      <c r="C11" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>bindingheal</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>"pommel"</v>
+      </c>
+      <c r="C12" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>pommel</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>"leapslam"</v>
+      </c>
+      <c r="C13" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>leapslam</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>"mentalshake"</v>
+      </c>
+      <c r="C14" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>mentalshake</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>"foresight"</v>
+      </c>
+      <c r="C15" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>foresight</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="35" t="str">
         <f t="shared" si="1"/>
         <v>"repairarmor"</v>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C16" s="87" t="str">
         <f t="shared" si="2"/>
         <v>repairarmor</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>"sneakpeek"</v>
-      </c>
-      <c r="C11" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>sneakpeek</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="95" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>"camouflage"</v>
-      </c>
-      <c r="C12" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>camouflage</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="95" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>"faststrike"</v>
-      </c>
-      <c r="C13" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>faststrike</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="95" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>"slash"</v>
-      </c>
-      <c r="C14" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>slash</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>"cleave"</v>
-      </c>
-      <c r="C15" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>cleave</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="96" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>"bladedance"</v>
-      </c>
-      <c r="C16" s="86" t="str">
-        <f t="shared" si="2"/>
-        <v>bladedance</v>
       </c>
     </row>
   </sheetData>
@@ -12773,22 +12771,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="97" t="s">
-        <v>233</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>185</v>
@@ -12797,40 +12795,40 @@
         <v>192</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>54</v>
@@ -12839,150 +12837,150 @@
         <v>28</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="AK1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="BA1" s="98" t="s">
+      <c r="BB1" s="98" t="s">
         <v>271</v>
       </c>
-      <c r="BB1" s="97" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98" t="b">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>concatenate("[",textjoin(", ",TRUE,Starter_Cards[Json]),"]")</f>
-        <v>["{\n    \"UnitsInDeck\": 4,\n    \"Card\": \"deflect\"\n}", "{\n    \"UnitsInDeck\": 3,\n    \"Card\": \"sneakystrike\"\n}", "{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"acrobaticstrike\"\n}", "{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"disengage\"\n}", "{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"provoke\"\n}", "{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"smokebomb\"\n}", "{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"shadowscaledistractingstrike\"\n}"]</v>
+        <v>["{\n    \"UnitsInDeck\": 4,\n    \"Card\": \"barrier\"\n}", "{\n    \"UnitsInDeck\": 4,\n    \"Card\": \"shieldbash\"\n}", "{\n    \"UnitsInDeck\": 3,\n    \"Card\": \"mindblast\"\n}", "{\n    \"UnitsInDeck\": 2,\n    \"Card\": \"bluff\"\n}", "{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"barricade\"\n}", "{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"clairvoyance\"\n}", "{\n    \"UnitsInDeck\": 1,\n    \"Card\": \"owlknightpainfulscreech\"\n}"]</v>
       </c>
       <c r="D2" s="5" t="str">
         <f t="array" ref="D2">index(OC_Pack_Names[Value],1,1)</f>
-        <v>ninja</v>
+        <v>guardian</v>
       </c>
       <c r="E2" s="5" t="str">
         <f t="array" ref="E2">index(OC_Pack_Names[Value],2,1)</f>
-        <v>rogue</v>
+        <v>protector</v>
       </c>
       <c r="F2" s="5" t="str">
         <f t="array" ref="F2">index(OC_Pack_Names[Value],3,1)</f>
-        <v>commander</v>
+        <v>mentalist</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="array" ref="G2">index(OC_Pack_Names[Value],4,1)</f>
-        <v>guardian</v>
+        <v>paladin</v>
       </c>
       <c r="H2" s="5" t="str">
         <f t="array" ref="H2">index(OC_Pack_Names[Value],5,1)</f>
-        <v>defender</v>
+        <v>seer</v>
       </c>
       <c r="I2" s="5" t="str">
         <f t="array" ref="I2">index(OC_Pack_Names[Value],6,1)</f>
-        <v>hunter</v>
+        <v>destroyer</v>
       </c>
       <c r="J2" s="5" t="str">
         <f t="array" ref="J2">index(OC_Pack_Names[Value],7,1)</f>
-        <v>scoundrel</v>
+        <v>brawler</v>
       </c>
       <c r="K2" s="5" t="str">
         <f>Description</f>
-        <v>Thuls Sister, bigger and stronger with more martial and tactical training</v>
+        <v>Longing for Isolde, Tristan will do everything he can to protect his allies and vanquish his foes.</v>
       </c>
       <c r="L2" s="5" t="str">
         <f>Strengths</f>
-        <v>This character controls the battlefield through stealth taunt and evade</v>
+        <v>This character excels at Blocking, Defense, and Mind Damage</v>
       </c>
       <c r="M2" s="5" t="str">
         <f>Character</f>
-        <v>Kaa</v>
+        <v>Tristan</v>
       </c>
       <c r="N2" s="5">
         <f>Energy</f>
@@ -12994,21 +12992,21 @@
       </c>
       <c r="P2" s="5" t="b">
         <f>Female</f>
-        <v>1</v>
-      </c>
-      <c r="Q2" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="99">
         <v>0.0</v>
       </c>
-      <c r="R2" s="98">
+      <c r="R2" s="99">
         <v>3.40000009536743</v>
       </c>
       <c r="S2" s="5" t="str">
         <f>lower(substitute(Class," ",""))</f>
-        <v>scout</v>
+        <v>warrior</v>
       </c>
       <c r="T2" s="5" t="str">
         <f>lower(SecondaryClass)</f>
-        <v>warrior</v>
+        <v>healer</v>
       </c>
       <c r="U2" s="5" t="str">
         <f>HitSound</f>
@@ -13016,26 +13014,26 @@
       </c>
       <c r="V2" s="5">
         <f>Hp</f>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="W2" s="5" t="str">
         <f>lower(substitute(Subclass," ",""))</f>
-        <v>shadowscale</v>
+        <v>owlknight</v>
       </c>
       <c r="X2" s="5" t="str">
         <f t="array" ref="X2">index(Starter_Cards[Card ID],1,1)</f>
-        <v>shadowscalearmorofmocking</v>
+        <v>owlknightowlguard</v>
       </c>
       <c r="Y2" s="5" t="str">
         <f>HPLevelList</f>
-        <v>[0,7,7,7,7]</v>
-      </c>
-      <c r="Z2" s="98">
+        <v>[0, 7, 7, 7, 7]</v>
+      </c>
+      <c r="Z2" s="99">
         <v>5.0</v>
       </c>
       <c r="AA2" s="5">
         <f>Slash</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="5">
         <f>Blunt</f>
@@ -13043,91 +13041,91 @@
       </c>
       <c r="AC2" s="5">
         <f>Pierce</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="5">
         <f>Fire</f>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AE2" s="5">
         <f>Cold</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="5">
         <f>Lightning</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AG2" s="5">
         <f>Holy</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH2" s="5">
         <f>Shadow</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="5">
         <f>Mind</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AJ2" s="5">
         <f>Speed</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK2" s="5" t="str">
         <f>Silueta</f>
-        <v>kaaSilueta</v>
-      </c>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98">
+        <v>tristanSilueta</v>
+      </c>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99">
         <v>0.100000001490116</v>
       </c>
       <c r="AR2" s="5" t="str">
         <f>Subclass</f>
-        <v>Shadowscale</v>
+        <v>Owl Knight</v>
       </c>
       <c r="AS2" s="5" t="str">
         <f t="array" ref="AS2">index(TraitFilenames,1,1)</f>
-        <v>shadowscaletrait0</v>
+        <v>owlknighttrait0</v>
       </c>
       <c r="AT2" s="5" t="str">
         <f t="array" ref="AT2">index(TraitFilenames,2,1)</f>
-        <v>shadowscaletrait1a</v>
+        <v>owlknighttrait1a</v>
       </c>
       <c r="AU2" s="5" t="str">
         <f t="array" ref="AU2">index(TraitFilenames,3,1)</f>
-        <v>shadowscaletrait1b</v>
+        <v>owlknighttrait1b</v>
       </c>
       <c r="AV2" s="5" t="str">
         <f t="array" ref="AV2">index(TraitFilenames,4,1)</f>
-        <v>shadowscaletrait2a</v>
+        <v>owlknighttrait2a</v>
       </c>
       <c r="AW2" s="5" t="str">
         <f t="array" ref="AW2">index(TraitFilenames,5,1)</f>
-        <v>shadowscaletrait2b</v>
+        <v>owlknighttrait2b</v>
       </c>
       <c r="AX2" s="5" t="str">
         <f t="array" ref="AX2">index(TraitFilenames,6,1)</f>
-        <v>shadowscaletrait3a</v>
+        <v>owlknighttrait3a</v>
       </c>
       <c r="AY2" s="5" t="str">
         <f t="array" ref="AY2">index(TraitFilenames,7,1)</f>
-        <v>shadowscaletrait3b</v>
+        <v>owlknighttrait3b</v>
       </c>
       <c r="AZ2" s="5" t="str">
         <f t="array" ref="AZ2">index(TraitFilenames,8,1)</f>
-        <v>shadowscaletrait4a</v>
+        <v>owlknighttrait4a</v>
       </c>
       <c r="BA2" s="5" t="str">
         <f t="array" ref="BA2">index(TraitFilenames,9,1)</f>
-        <v>shadowscaletrait4b</v>
+        <v>owlknighttrait4b</v>
       </c>
       <c r="BB2" s="5" t="str">
         <f>concatenate("[",textjoin(", ",TRUE,SingularityDeck[Card Strings]),"]")</f>
-        <v>["shadowscaledistractingstrike", "deflect", "sneakystrike", "acrobaticstrike", "disengage", "provoke", "smokebomb", "intercept", "repairarmor", "sneakpeek", "camouflage", "faststrike", "slash", "cleave", "bladedance"]</v>
+        <v>["owlknightpainfulscreech", "barrier", "shieldbash", "mindblast", "bluff", "barricade", "clairvoyance", "intercept", "infusecourage", "bindingheal", "pommel", "leapslam", "mentalshake", "foresight", "repairarmor"]</v>
       </c>
     </row>
     <row r="3">
@@ -13480,88 +13478,88 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="97" t="s">
+      <c r="A1" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="H1" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="I1" s="98" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="J1" s="98" t="s">
         <v>276</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="K1" s="98" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="L1" s="98" t="s">
         <v>278</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="M1" s="98" t="s">
         <v>279</v>
-      </c>
-      <c r="M1" s="97" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="str">
         <f t="array" ref="A2">index(Obelisk_Challenge_Starter_Pack[Card ID],1,1)</f>
-        <v>shadowscaledistractingstrike</v>
+        <v>owlknightpainfulscreech</v>
       </c>
       <c r="B2" s="5" t="str">
         <f t="array" ref="B2">index(Obelisk_Challenge_Starter_Pack[Card ID],2,1)</f>
-        <v>deflect</v>
+        <v>barrier</v>
       </c>
       <c r="C2" s="5" t="str">
         <f t="array" ref="C2">index(Obelisk_Challenge_Starter_Pack[Card ID],3,1)</f>
-        <v>acrobaticstrike</v>
+        <v>shieldbash</v>
       </c>
       <c r="D2" s="5" t="str">
         <f t="array" ref="D2">index(Obelisk_Challenge_Starter_Pack[Card ID],4,1)</f>
-        <v>disengage</v>
+        <v>mindblast</v>
       </c>
       <c r="E2" s="5" t="str">
         <f t="array" ref="E2">index(Obelisk_Challenge_Starter_Pack[Card ID],5,1)</f>
-        <v>provoke</v>
+        <v>bluff</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="str">
         <f>lower(Class)</f>
-        <v>scout</v>
+        <v>warrior</v>
       </c>
       <c r="J2" s="5" t="str">
         <f>lower(substitute(Character," ",""))</f>
-        <v>kaa</v>
+        <v>tristan</v>
       </c>
       <c r="K2" s="5" t="str">
         <f>Character</f>
-        <v>Kaa</v>
-      </c>
-      <c r="L2" s="97" t="s">
-        <v>281</v>
+        <v>Tristan</v>
+      </c>
+      <c r="L2" s="98" t="s">
+        <v>280</v>
       </c>
       <c r="M2" s="5" t="str">
         <f>lower(substitute(Subclass," ",""))</f>
-        <v>shadowscale</v>
+        <v>owlknight</v>
       </c>
     </row>
     <row r="3">
@@ -13625,37 +13623,37 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="98" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="E1" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="F1" s="98" t="s">
         <v>284</v>
-      </c>
-      <c r="F1" s="97" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="str">
         <f>NewGameObject</f>
-        <v>skinkaa</v>
+        <v>skintristan</v>
       </c>
       <c r="B2" s="5" t="str">
         <f t="array" ref="B2">index(GameObject_Info[Value],1,1)</f>
-        <v>thulsSkinMedium</v>
+        <v>buhoelfo</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>CustomSprite</f>
-        <v>skinLizzie</v>
+        <v/>
       </c>
       <c r="D2" s="5">
         <f>ScaleFactor</f>
@@ -13667,7 +13665,7 @@
       </c>
       <c r="F2" s="5" t="b">
         <f>Flip</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
